--- a/biology/Zoologie/Sportpark_Hazelaarweg/Sportpark_Hazelaarweg.xlsx
+++ b/biology/Zoologie/Sportpark_Hazelaarweg/Sportpark_Hazelaarweg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sportpark Hazelaarweg, est un stade multisports néerlandais (principalement utilisé pour le cricket et le hockey sur gazon) situé dans la ville de Rotterdam.
 Doté d'une capacité de 3500 spectateurs (pouvant être étendue à 10000), le stade sert d'enceinte à domicile pour l'équipe de hockey du HC Rotterdam ainsi que l'équipe de cricket du VOC.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stade est inauguré le 14 octobre 2001 en présence du maire de la ville de l'époque, Ivo Opstelten, ainsi que de la secrétaire d'état Margo Vliegenthart.
 L'équipe de hockey sur gazon du HC Aeolus y a évolué entre 2001 et 2011.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
